--- a/config/律师能力定级.xlsx
+++ b/config/律师能力定级.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9847" windowHeight="6120"/>
+    <workbookView windowWidth="18540" windowHeight="9730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>姓名</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>王彬</t>
+  </si>
+  <si>
+    <t>陈方圆</t>
   </si>
 </sst>
 </file>
@@ -80,9 +83,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -95,54 +98,53 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,51 +152,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,14 +166,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -224,6 +173,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -232,7 +197,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +250,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,13 +328,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,25 +358,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,19 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,97 +400,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,11 +444,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,16 +475,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,23 +503,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,8 +536,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,16 +1017,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="10.5929203539823"/>
-    <col min="3" max="3" width="11.3097345132743" customWidth="1"/>
+    <col min="2" max="2" width="10.5909090909091"/>
+    <col min="3" max="3" width="11.3090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1189,6 +1192,17 @@
       </c>
       <c r="C15" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42217</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1220,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1222,7 +1236,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/config/律师能力定级.xlsx
+++ b/config/律师能力定级.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>姓名</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>陈方圆</t>
+  </si>
+  <si>
+    <t>罗烨希</t>
   </si>
 </sst>
 </file>
@@ -99,7 +102,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,47 +116,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,6 +133,72 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -176,6 +209,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,52 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +253,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -262,43 +271,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,37 +379,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,55 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,16 +447,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -475,6 +507,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -488,59 +544,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -549,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,10 +1020,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1203,6 +1206,17 @@
       </c>
       <c r="C16" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43198</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/config/律师能力定级.xlsx
+++ b/config/律师能力定级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="9730"/>
+    <workbookView windowWidth="13420" windowHeight="9140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,27 +100,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,9 +123,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,59 +140,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,15 +163,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,7 +193,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,37 +253,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,145 +409,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +444,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,26 +491,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,21 +536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -529,21 +544,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,15 +1020,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="10.5909090909091"/>
+    <col min="2" max="2" width="10.6363636363636"/>
     <col min="3" max="3" width="11.3090909090909" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1217,6 +1217,17 @@
       </c>
       <c r="C17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43405</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/config/律师能力定级.xlsx
+++ b/config/律师能力定级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13420" windowHeight="9140"/>
+    <workbookView windowWidth="19200" windowHeight="9140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>姓名</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>罗烨希</t>
+  </si>
+  <si>
+    <t>孙跃红</t>
   </si>
 </sst>
 </file>
@@ -86,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,7 +104,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,7 +119,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,113 +202,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -253,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +447,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,57 +519,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,10 +1023,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1228,6 +1231,50 @@
       </c>
       <c r="C18" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43728</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43770</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/config/律师能力定级.xlsx
+++ b/config/律师能力定级.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="9140"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$23</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>姓名</t>
   </si>
@@ -90,8 +93,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -104,7 +107,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,7 +153,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,48 +191,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,15 +227,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,30 +245,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,13 +259,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,169 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,45 +450,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,6 +488,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -547,6 +535,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -555,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,17 +1025,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.02777777777778" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="10.6363636363636"/>
-    <col min="3" max="3" width="11.3090909090909" customWidth="1"/>
+    <col min="2" max="2" width="10.7777777777778"/>
+    <col min="3" max="3" width="11.3055555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1046,7 +1049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" hidden="1" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" hidden="1" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" hidden="1" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" hidden="1" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" hidden="1" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" hidden="1" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" hidden="1" spans="1:3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" hidden="1" spans="1:3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" hidden="1" spans="1:3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" hidden="1" spans="1:3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1156,7 +1159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" hidden="1" spans="1:3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" hidden="1" spans="1:3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" hidden="1" spans="1:3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" hidden="1" spans="1:3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" hidden="1" spans="1:3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" hidden="1" spans="1:3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" hidden="1" spans="1:3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" hidden="1" spans="1:3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" hidden="1" spans="1:3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1280,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C23">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="equal" val="孙跃红"/>
+      </customFilters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1292,7 +1314,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02777777777778" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1308,7 +1330,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02777777777778" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/config/律师能力定级.xlsx
+++ b/config/律师能力定级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$24</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>姓名</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>孙跃红</t>
+  </si>
+  <si>
+    <t>郑锦骅</t>
+  </si>
+  <si>
+    <t>五级律师</t>
+  </si>
+  <si>
+    <t>张敏</t>
   </si>
 </sst>
 </file>
@@ -92,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,15 +123,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,32 +167,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,9 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,27 +198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -220,15 +206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -237,7 +224,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,13 +462,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,71 +543,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,11 +1034,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C23"/>
+  <sheetPr/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02777777777778" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1049,7 +1058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1126,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1148,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1159,7 +1168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1181,7 +1190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1192,7 +1201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1214,7 +1223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1225,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1247,7 +1256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1291,15 +1300,62 @@
         <v>8</v>
       </c>
     </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44394</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44440</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44613</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44641</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C23">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="孙跃红"/>
-      </customFilters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
